--- a/1. Arbitrary Array (3,4Array)/Single_FFR_Relative_Error - 최신 HKI 버젼 (integral theta).xlsx
+++ b/1. Arbitrary Array (3,4Array)/Single_FFR_Relative_Error - 최신 HKI 버젼 (integral theta).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="24" documentId="6_{3952EC13-6099-488B-A735-225E12CBDEC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E9BA1756-F5C3-4E9F-81F6-A76E73506381}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="17385" activeTab="3" xr2:uid="{F809ED7E-B7F2-4D14-9E2F-854BB1B1388F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="17385" xr2:uid="{F809ED7E-B7F2-4D14-9E2F-854BB1B1388F}"/>
   </bookViews>
   <sheets>
     <sheet name="Z_11" sheetId="1" r:id="rId1"/>
@@ -9049,8 +9049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9057BAD-8FBC-4D49-B900-AD9D698F52D5}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9910,8 +9910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DFAEB1-B984-4ECE-B7FF-70A9C3A4618A}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11628,7 +11628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F55ABFB-14F1-408C-BBDD-4655732396A2}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -12477,12 +12477,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12676,15 +12673,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B438D6D-30B2-4C3B-929E-B01871068A79}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C131489-7CCA-4670-8B56-C6A51A0F0CAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="af16c2e8-b6bd-4b6b-b669-c2f78501a31f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12708,17 +12716,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C131489-7CCA-4670-8B56-C6A51A0F0CAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B438D6D-30B2-4C3B-929E-B01871068A79}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="af16c2e8-b6bd-4b6b-b669-c2f78501a31f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>